--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>Tasks</t>
   </si>
@@ -117,9 +117,6 @@
     <t>IssueRet, IssueDetailRet, Item_Sec</t>
   </si>
   <si>
-    <t>Unable to understand the form</t>
-  </si>
-  <si>
     <t>Packing Formula Definition</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Completed &amp; Revised</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>41930</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -632,7 +632,7 @@
         <v>41924</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -648,7 +648,7 @@
     </row>
     <row r="4" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -663,7 +663,7 @@
         <v>41934</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -696,7 +696,7 @@
         <v>41934</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -795,10 +795,18 @@
       <c r="C9" s="5">
         <v>41938</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>41968</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="4"/>
@@ -836,10 +844,10 @@
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="5">
         <v>41940</v>
@@ -851,7 +859,7 @@
         <v>41942</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -866,10 +874,10 @@
     </row>
     <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="5">
         <v>41943</v>
@@ -881,7 +889,7 @@
         <v>41943</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Tasks</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Completed &amp; Revised</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -529,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,14 +795,19 @@
       <c r="D9" s="5">
         <v>41968</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>41974</v>
+      </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
       </c>
       <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="5"/>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ComsatProj\branches\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>Tasks</t>
   </si>
@@ -133,6 +138,12 @@
   </si>
   <si>
     <t>Completed &amp; Revised</t>
+  </si>
+  <si>
+    <t>AutoNumber</t>
+  </si>
+  <si>
+    <t>Excluded</t>
   </si>
 </sst>
 </file>
@@ -233,6 +244,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -280,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,27 +538,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,16 +585,19 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -607,12 +625,15 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -640,10 +661,13 @@
       <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -669,14 +693,17 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -704,10 +731,13 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -732,13 +762,13 @@
       <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -748,10 +778,13 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -776,13 +809,13 @@
       <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -807,13 +840,13 @@
       <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -838,13 +871,13 @@
       <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -870,11 +903,14 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -900,12 +936,15 @@
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Tasks</t>
   </si>
@@ -144,13 +144,16 @@
   </si>
   <si>
     <t>Excluded</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +201,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -234,6 +251,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +783,9 @@
       <c r="H6" t="s">
         <v>28</v>
       </c>
+      <c r="I6" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="J6" t="s">
         <v>28</v>
       </c>
@@ -831,7 +855,7 @@
       <c r="E9" s="5">
         <v>41974</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Tasks</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Issue Return</t>
   </si>
   <si>
-    <t>IssueRet, IssueDetailRet, Item_Sec</t>
-  </si>
-  <si>
     <t>Packing Formula Definition</t>
   </si>
   <si>
@@ -146,14 +143,14 @@
     <t>Excluded</t>
   </si>
   <si>
-    <t>IN PROGRESS</t>
+    <t>IssueRet, IssueRetDetail, Item_Sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,14 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -251,10 +240,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -635,7 +624,7 @@
         <v>41930</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -671,7 +660,7 @@
         <v>41924</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -690,7 +679,7 @@
     </row>
     <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -705,7 +694,7 @@
         <v>41934</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -714,7 +703,7 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -741,7 +730,7 @@
         <v>41934</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
@@ -783,8 +772,8 @@
       <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>40</v>
+      <c r="I6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -803,7 +792,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="4"/>
@@ -855,7 +844,7 @@
       <c r="E9" s="5">
         <v>41974</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">
@@ -875,7 +864,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
         <v>41939</v>
@@ -895,6 +884,9 @@
       <c r="H10" t="s">
         <v>28</v>
       </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
       <c r="J10" t="s">
         <v>28</v>
       </c>
@@ -903,10 +895,10 @@
     </row>
     <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>41940</v>
@@ -918,7 +910,7 @@
         <v>41942</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
@@ -927,7 +919,7 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
         <v>28</v>
@@ -936,10 +928,10 @@
     </row>
     <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C12" s="5">
         <v>41943</v>
@@ -951,7 +943,7 @@
         <v>41943</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -960,7 +952,7 @@
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Tasks</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>IssueRet, IssueRetDetail, Item_Sec</t>
+  </si>
+  <si>
+    <t>Sale Order Entry</t>
   </si>
 </sst>
 </file>
@@ -550,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,6 +963,24 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5">
+        <v>41943</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
       <c r="L13" s="3"/>
     </row>
   </sheetData>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Tasks</t>
   </si>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +825,9 @@
       <c r="H8" t="s">
         <v>28</v>
       </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
       <c r="J8" t="s">
         <v>28</v>
       </c>
@@ -962,7 +965,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>Tasks</t>
   </si>
@@ -859,6 +859,9 @@
       <c r="H9" t="s">
         <v>28</v>
       </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
       <c r="J9" t="s">
         <v>28</v>
       </c>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>Tasks</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Sale Order Entry</t>
+  </si>
+  <si>
+    <t>Change from ASCII to english (For Item Code Des)</t>
   </si>
 </sst>
 </file>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +991,11 @@
         <v>28</v>
       </c>
       <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>Tasks</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Change from ASCII to english (For Item Code Des)</t>
+  </si>
+  <si>
+    <t>Ord_Hist, Ord_Det</t>
   </si>
 </sst>
 </file>
@@ -556,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,6 +978,9 @@
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="5">
         <v>41943</v>
       </c>
@@ -985,6 +991,9 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
         <v>28</v>
       </c>
       <c r="J13" t="s">
@@ -995,6 +1004,24 @@
     <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="C14" s="5">
+        <v>41656</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>Tasks</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Ord_Hist, Ord_Det</t>
+  </si>
+  <si>
+    <t>Deletion in Grid</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,12 +576,12 @@
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="9" max="10" width="28.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,16 +610,19 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -644,15 +650,15 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4" t="s">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -683,10 +689,13 @@
       <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="39" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -714,15 +723,15 @@
       <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="4" t="s">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -750,13 +759,13 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -784,13 +793,14 @@
       <c r="I6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="9"/>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -803,10 +813,10 @@
       <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L7" s="5"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -834,13 +844,13 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -868,13 +878,13 @@
       <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -902,13 +912,13 @@
       <c r="I10" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -936,12 +946,12 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -969,12 +979,12 @@
       <c r="I12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -996,12 +1006,12 @@
       <c r="I13" t="s">
         <v>28</v>
       </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
@@ -1020,7 +1030,7 @@
       <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>28</v>
       </c>
     </row>

--- a/branches/UsamaTasks.xlsx
+++ b/branches/UsamaTasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
   <si>
     <t>Tasks</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Deletion in Grid</t>
+  </si>
+  <si>
+    <t>Balloon</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -560,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,12 +582,15 @@
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="10" width="28.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,19 +619,25 @@
         <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -650,15 +665,24 @@
       <c r="I2" t="s">
         <v>28</v>
       </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
       <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -692,10 +716,16 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -723,15 +753,24 @@
       <c r="I4" t="s">
         <v>38</v>
       </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
       <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -759,13 +798,22 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
       <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -794,13 +842,15 @@
         <v>28</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -813,10 +863,22 @@
       <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -844,13 +906,13 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -878,13 +940,13 @@
       <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -912,13 +974,13 @@
       <c r="I10" t="s">
         <v>28</v>
       </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -946,12 +1008,21 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
       <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -979,12 +1050,21 @@
       <c r="I12" t="s">
         <v>38</v>
       </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
       <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -1006,12 +1086,12 @@
       <c r="I13" t="s">
         <v>28</v>
       </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
@@ -1030,7 +1110,7 @@
       <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>28</v>
       </c>
     </row>
